--- a/biology/Écologie/Anne_Larigauderie/Anne_Larigauderie.xlsx
+++ b/biology/Écologie/Anne_Larigauderie/Anne_Larigauderie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Larigauderie, née à Bourges en 1960, est une écologue française, secrétaire exécutive de la Plateforme intergouvernementale scientifique et politique sur la biodiversité et les services écosystémiques (IPBES)[1] après avoir été à la tête du Conseil international pour la science (ICSU), de Diversitas, spécialiste des études sur la biodiversité. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Larigauderie, née à Bourges en 1960, est une écologue française, secrétaire exécutive de la Plateforme intergouvernementale scientifique et politique sur la biodiversité et les services écosystémiques (IPBES) après avoir été à la tête du Conseil international pour la science (ICSU), de Diversitas, spécialiste des études sur la biodiversité. 
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne Larigauderie naît à Bourges en 1960[2]. Elle est diplômée en biologie moléculaire de l'Université Toulouse-III-Paul-Sabatier et obtient en 1985 un doctorat en écologie végétale de l'Université Montpellier-II et du CNRS. Elle travaille plusieurs années aux États-Unis, notamment en Alaska, pour mieux comprendre les effets du gaz carbonique sur le réchauffement climatique sur les plantes et les écosystèmes[3].
-Elle revient en Europe et travaille sur les effets du réchauffement climatique sur les plantes alpines (avec le professeur Christian Körner de l'Université de Bâle)[4]. En 1996, elle devient coordinatrice du Programme suisse sur la biodiversité et conseillère de la délégation suisse sur la Convention sur la diversité biologique[3]. En 1999, elle rejoint le Conseil international pour la science (ICSU, Paris) comme responsable des sciences de l'environnement[3]. 
-En 2010, alors directrice exécutive du comité scientifique Diversitas de l’ONU, elle plaide à Nagoya, devant 192 États membres, pour la création d’un organisme scientifique international qui évaluera l’état de santé des milieux naturels et des populations d’animaux[5]. En 2011, elle est nommée directrice de Diversitas[6] (devenu Future Earth en 2014) et elle organise la structure en un programme scientifique international consacré, d'une part, aux sciences de la biodiversité et aux services écosystémiques et, d'autre part, au renforcement de l'interface science-politique pour la biodiversité et les services écosystémiques. Elle œuvre à faciliter, au nom de la communauté scientifique, la mise en place d'un mécanisme similaire au GIEC pour la biodiversité[7] : la plateforme intergouvernementale scientifique et politique sur la biodiversité et les services écosystémiques (IPBES)[8],[9]. En 2021, le GIEC et l'IPBES publient le rapport d'un travail commun[10].  
-En 2013, elle devient responsable de la science dans la Société au Conseil international pour la science (ICSU). En 2014, elle devient secrétaire exécutive de l'IPBES[11], poste qu'elle occupe toujours en 2023[12]. En 2019, elle participe à l'organisation à Paris de la réunion des experts et des 132 délégués des pays membres de cette plateforme[13]. En 2022, selon Anne Larigauderie « dans les grandes lignes, le cadre mondial de la biodiversité [défini lors de la COP 15 à Kunming-Montréal] répond aux alertes de l’IPBES. »[14],[15]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne Larigauderie naît à Bourges en 1960. Elle est diplômée en biologie moléculaire de l'Université Toulouse-III-Paul-Sabatier et obtient en 1985 un doctorat en écologie végétale de l'Université Montpellier-II et du CNRS. Elle travaille plusieurs années aux États-Unis, notamment en Alaska, pour mieux comprendre les effets du gaz carbonique sur le réchauffement climatique sur les plantes et les écosystèmes.
+Elle revient en Europe et travaille sur les effets du réchauffement climatique sur les plantes alpines (avec le professeur Christian Körner de l'Université de Bâle). En 1996, elle devient coordinatrice du Programme suisse sur la biodiversité et conseillère de la délégation suisse sur la Convention sur la diversité biologique. En 1999, elle rejoint le Conseil international pour la science (ICSU, Paris) comme responsable des sciences de l'environnement. 
+En 2010, alors directrice exécutive du comité scientifique Diversitas de l’ONU, elle plaide à Nagoya, devant 192 États membres, pour la création d’un organisme scientifique international qui évaluera l’état de santé des milieux naturels et des populations d’animaux. En 2011, elle est nommée directrice de Diversitas (devenu Future Earth en 2014) et elle organise la structure en un programme scientifique international consacré, d'une part, aux sciences de la biodiversité et aux services écosystémiques et, d'autre part, au renforcement de l'interface science-politique pour la biodiversité et les services écosystémiques. Elle œuvre à faciliter, au nom de la communauté scientifique, la mise en place d'un mécanisme similaire au GIEC pour la biodiversité : la plateforme intergouvernementale scientifique et politique sur la biodiversité et les services écosystémiques (IPBES),. En 2021, le GIEC et l'IPBES publient le rapport d'un travail commun.  
+En 2013, elle devient responsable de la science dans la Société au Conseil international pour la science (ICSU). En 2014, elle devient secrétaire exécutive de l'IPBES, poste qu'elle occupe toujours en 2023. En 2019, elle participe à l'organisation à Paris de la réunion des experts et des 132 délégués des pays membres de cette plateforme. En 2022, selon Anne Larigauderie « dans les grandes lignes, le cadre mondial de la biodiversité [défini lors de la COP 15 à Kunming-Montréal] répond aux alertes de l’IPBES. »,. 
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Charles Perrings, Anantha Duraiappah, Anne Larigaudrie et Harold Mooney, « The Biodiversity and Ecosystem Services Science-Policy Interface », Science, vol. 331, no 6021,‎ 4 mars 2011, p. 1139–1140 (ISSN 0036-8075 et 1095-9203, DOI 10.1126/science.1202400, lire en ligne, consulté le 11 avril 2024)
 (en) Anne Larigauderie, Georgina M. Mace et Harold A. Mooney, « Colour-coded targets would help clarify biodiversity priorities », Nature, vol. 464, no 7286,‎ mars 2010, p. 160–160 (ISSN 1476-4687, DOI 10.1038/464160b, lire en ligne, consulté le 11 avril 2024)
@@ -584,10 +600,12 @@
           <t>Décorations et honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2010, elle est nommée Chevalier de l’Ordre national de la Légion d’Honneur, puis promue au grade d'officier en 2019[16].
-En 2023, elle reçoit un doctorat d'honneur de l'Université de Bergen, pour son rôle central au sein de l'IPBES[17].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, elle est nommée Chevalier de l’Ordre national de la Légion d’Honneur, puis promue au grade d'officier en 2019.
+En 2023, elle reçoit un doctorat d'honneur de l'Université de Bergen, pour son rôle central au sein de l'IPBES.
 </t>
         </is>
       </c>
